--- a/BancoNacion/catalogo/catalogo_NIVEL.xlsx
+++ b/BancoNacion/catalogo/catalogo_NIVEL.xlsx
@@ -5,18 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff20ac3aac775278/Documentos/BancoNacion/Reclamos/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff20ac3aac775278/Documentos/R2D2/BancoNacion/catalogo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{189C8464-887B-41C3-BE20-40055EBCE1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9778CB98-9C19-4B9C-AA16-9018B7200355}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="14_{189C8464-887B-41C3-BE20-40055EBCE1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C632A48C-3031-4565-8B8F-D1F078F811C8}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1575" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8055" yWindow="3390" windowWidth="28800" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="MOTIVOS" sheetId="3" r:id="rId2"/>
+    <sheet name="SERVICIOS" sheetId="4" r:id="rId3"/>
+    <sheet name="CANALES" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhTpNChBRJUk4F4b0iF1JpkjrA7rQ=="/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="133">
   <si>
     <t>Servicio</t>
   </si>
@@ -301,6 +312,129 @@
   </si>
   <si>
     <t>Categoria</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>07</t>
   </si>
 </sst>
 </file>
@@ -387,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -408,6 +542,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5213C1CF-8C0D-417E-97AE-EA10AAFBF38A}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1319,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
@@ -1676,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>8</v>
       </c>
@@ -1693,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>8</v>
       </c>
@@ -2003,4 +2140,678 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487406DD-FE09-4156-B05C-9923304E33C9}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C37">
+    <sortCondition ref="C2:C37"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3773DB78-BF23-4B6F-8E6B-732162CAED45}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E27B98D-7D8D-46AC-A1E0-0CAB9538C8C7}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>